--- a/上海中心/Python脚本/exp_instrument_info.xlsx
+++ b/上海中心/Python脚本/exp_instrument_info.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SHZX_output\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E91F8-CF88-458B-8241-54CFEF420CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D420A01A-BB69-4D19-8A5C-9AA943453DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="3758" windowWidth="15390" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_instrument_info_原始" sheetId="2" r:id="rId1"/>
     <sheet name="exp_instrument_info" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">exp_instrument_info!$A$1:$G$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">exp_instrument_info!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp_instrument_info_原始!$A$1:$F$160</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="193">
   <si>
     <t>Instru_serial</t>
   </si>
@@ -594,22 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,14 +602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y=X*25-25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,6 +620,12 @@
   <si>
     <t>ZD-124-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -711,6 +693,186 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>401695</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>191050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E035A518-7144-465E-90CB-3E332180AB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374120" y="276225"/>
+          <a:ext cx="4184593" cy="4105825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213339</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91605520-41CC-4126-9398-2B2EA20D82AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305267" y="4492625"/>
+          <a:ext cx="4348781" cy="4411926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>689646</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608681</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>46836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C419EFC-C732-4FDF-AD2B-040DE29F8FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13106574" y="326605"/>
+          <a:ext cx="5484848" cy="4390924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>792041</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1013205</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>202407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EC1C36-895E-4069-AB05-F79CDAF074AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect t="17401" r="33604" b="14149"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13257886" y="5119687"/>
+          <a:ext cx="5817102" cy="4298158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1168,7 @@
         <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -4190,10 +4352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703561CE-5326-462E-9E57-BA66BA149A72}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4224,1556 +4386,1416 @@
         <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>10087</v>
+        <v>10033</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>10087</v>
+        <v>10033</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>10087</v>
+        <v>10033</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>10087</v>
+        <v>10033</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>10108</v>
+        <v>10037</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>10108</v>
+        <v>10037</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>10108</v>
+        <v>10037</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>10108</v>
+        <v>10037</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>10496</v>
+        <v>10037</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10496</v>
+        <v>10037</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10496</v>
+        <v>10037</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>10496</v>
+        <v>10037</v>
       </c>
       <c r="B13" s="1">
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>20992</v>
+        <v>10108</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>20992</v>
+        <v>10108</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>20992</v>
+        <v>10068</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>20992</v>
+        <v>10068</v>
       </c>
       <c r="B17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.96</v>
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>10130</v>
+        <v>10068</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>10130</v>
+        <v>10068</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>10130</v>
+        <v>10068</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>10130</v>
+        <v>10068</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>10125</v>
+        <v>10068</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>10125</v>
+        <v>10068</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>10125</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10125</v>
       </c>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>10198</v>
+        <v>10085</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>10198</v>
+        <v>10085</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>10198</v>
+        <v>10085</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>10198</v>
+        <v>10085</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>10131</v>
+        <v>10085</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>10131</v>
+        <v>10085</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>10131</v>
+        <v>10085</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>10131</v>
+        <v>10085</v>
       </c>
       <c r="B33" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>10181</v>
+        <v>10027</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>10181</v>
+        <v>10027</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>10181</v>
+        <v>10113</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>10181</v>
+        <v>10113</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>10129</v>
+        <v>10113</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>10129</v>
+        <v>10113</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>10129</v>
+        <v>10113</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>10129</v>
+        <v>10113</v>
       </c>
       <c r="B41" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>10496</v>
+        <v>10113</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F42" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>10496</v>
+        <v>10113</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F43" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>10496</v>
+        <v>10087</v>
       </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F44" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>10496</v>
+        <v>14080</v>
       </c>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F45" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>10026</v>
+        <v>14080</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F46" s="1">
-        <v>8.5300000000000001E-2</v>
+        <v>0.98</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>10026</v>
+        <v>14080</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F47" s="1">
-        <v>-8.5999999999999993E-2</v>
+        <v>0.98</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>10181</v>
+        <v>14080</v>
       </c>
       <c r="B48" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F48" s="1">
-        <v>0.31830000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>10181</v>
+        <v>14080</v>
       </c>
       <c r="B49" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>10026</v>
+        <v>14080</v>
       </c>
       <c r="B50" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1">
-        <v>-0.59150000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>10026</v>
+        <v>14080</v>
       </c>
       <c r="B51" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F51" s="1">
-        <v>0.58789999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>10026</v>
+        <v>14080</v>
       </c>
       <c r="B52" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F52" s="1">
-        <v>0.82089999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>10026</v>
+        <v>10125</v>
       </c>
       <c r="B53" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>10108</v>
+        <v>10115</v>
       </c>
       <c r="B54" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1">
-        <v>0.372</v>
+        <v>0.98</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>10108</v>
+        <v>10115</v>
       </c>
       <c r="B55" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F55" s="1">
-        <v>-0.84789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>10036</v>
+        <v>10115</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1">
-        <v>0.53129999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>10036</v>
+        <v>10115</v>
       </c>
       <c r="B57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F57" s="1">
-        <v>-0.186</v>
+        <v>0.98</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>20992</v>
+        <v>10115</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F58" s="1">
-        <v>-1.1907000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>20992</v>
+        <v>10115</v>
       </c>
       <c r="B59" s="1">
         <v>6</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1">
-        <v>-0.39710000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>10036</v>
+        <v>10115</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1">
-        <v>3.6900000000000002E-2</v>
+        <v>0.98</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>10036</v>
+        <v>10115</v>
       </c>
       <c r="B61" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F61" s="1">
-        <v>0.33800000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>10036</v>
+        <v>10129</v>
       </c>
       <c r="B62" s="1">
         <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1">
-        <v>1.2499</v>
+        <v>0.98</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>10036</v>
+        <v>10026</v>
       </c>
       <c r="B63" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -5785,18 +5807,18 @@
         <v>4</v>
       </c>
       <c r="F63" s="1">
-        <v>0.19009999999999999</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>10036</v>
+        <v>10026</v>
       </c>
       <c r="B64" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
@@ -5808,18 +5830,18 @@
         <v>4</v>
       </c>
       <c r="F64" s="1">
-        <v>1.0323</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>10036</v>
+        <v>10181</v>
       </c>
       <c r="B65" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -5831,18 +5853,18 @@
         <v>4</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>0.31830000000000003</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>10160</v>
+        <v>10181</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
@@ -5854,18 +5876,18 @@
         <v>4</v>
       </c>
       <c r="F66" s="1">
-        <v>1.0611999999999999</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>10160</v>
+        <v>10026</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -5877,18 +5899,18 @@
         <v>4</v>
       </c>
       <c r="F67" s="1">
-        <v>-2.6599999999999999E-2</v>
+        <v>-0.59150000000000003</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>10160</v>
+        <v>10026</v>
       </c>
       <c r="B68" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -5900,18 +5922,18 @@
         <v>4</v>
       </c>
       <c r="F68" s="1">
-        <v>0.66500000000000004</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>10160</v>
+        <v>10026</v>
       </c>
       <c r="B69" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
@@ -5923,18 +5945,18 @@
         <v>4</v>
       </c>
       <c r="F69" s="1">
-        <v>0.1968</v>
+        <v>0.82089999999999996</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>10160</v>
+        <v>10026</v>
       </c>
       <c r="B70" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
@@ -5946,18 +5968,18 @@
         <v>4</v>
       </c>
       <c r="F70" s="1">
-        <v>-0.26650000000000001</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>10160</v>
+        <v>10108</v>
       </c>
       <c r="B71" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -5969,18 +5991,18 @@
         <v>4</v>
       </c>
       <c r="F71" s="1">
-        <v>0.93500000000000005</v>
+        <v>0.372</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>10160</v>
+        <v>10108</v>
       </c>
       <c r="B72" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
@@ -5992,18 +6014,18 @@
         <v>4</v>
       </c>
       <c r="F72" s="1">
-        <v>0.2621</v>
+        <v>-0.84789999999999999</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>10160</v>
+        <v>10036</v>
       </c>
       <c r="B73" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
@@ -6015,18 +6037,18 @@
         <v>4</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>0.53129999999999999</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>10198</v>
+        <v>10036</v>
       </c>
       <c r="B74" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
@@ -6038,18 +6060,18 @@
         <v>4</v>
       </c>
       <c r="F74" s="1">
-        <v>-0.43319999999999997</v>
+        <v>-0.186</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>10198</v>
+        <v>20992</v>
       </c>
       <c r="B75" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -6061,18 +6083,18 @@
         <v>4</v>
       </c>
       <c r="F75" s="1">
-        <v>1.337</v>
+        <v>-1.1907000000000001</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>10198</v>
+        <v>20992</v>
       </c>
       <c r="B76" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
@@ -6084,18 +6106,18 @@
         <v>4</v>
       </c>
       <c r="F76" s="1">
-        <v>4.3299999999999998E-2</v>
+        <v>-0.39710000000000001</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>10198</v>
+        <v>10036</v>
       </c>
       <c r="B77" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
@@ -6107,18 +6129,18 @@
         <v>4</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>10032</v>
+        <v>10036</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
@@ -6130,18 +6152,18 @@
         <v>4</v>
       </c>
       <c r="F78" s="1">
-        <v>1.2726999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>10032</v>
+        <v>10036</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -6153,18 +6175,18 @@
         <v>4</v>
       </c>
       <c r="F79" s="1">
-        <v>-0.16270000000000001</v>
+        <v>1.2499</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>10032</v>
+        <v>10036</v>
       </c>
       <c r="B80" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
@@ -6176,18 +6198,18 @@
         <v>4</v>
       </c>
       <c r="F80" s="1">
-        <v>2.4777999999999998</v>
+        <v>0.19009999999999999</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>10032</v>
+        <v>10036</v>
       </c>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
@@ -6199,18 +6221,18 @@
         <v>4</v>
       </c>
       <c r="F81" s="1">
-        <v>-0.75229999999999997</v>
+        <v>1.0323</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>10181</v>
+        <v>10036</v>
       </c>
       <c r="B82" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
@@ -6222,18 +6244,18 @@
         <v>4</v>
       </c>
       <c r="F82" s="1">
-        <v>-0.24429999999999999</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>10181</v>
+        <v>10160</v>
       </c>
       <c r="B83" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
@@ -6245,18 +6267,18 @@
         <v>4</v>
       </c>
       <c r="F83" s="1">
-        <v>0.25679999999999997</v>
+        <v>1.0611999999999999</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>10032</v>
+        <v>10160</v>
       </c>
       <c r="B84" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
@@ -6268,18 +6290,18 @@
         <v>4</v>
       </c>
       <c r="F84" s="1">
-        <v>0.39079999999999998</v>
+        <v>-2.6599999999999999E-2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>10032</v>
+        <v>10160</v>
       </c>
       <c r="B85" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
@@ -6291,18 +6313,18 @@
         <v>4</v>
       </c>
       <c r="F85" s="1">
-        <v>0.92669999999999997</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>10032</v>
+        <v>10160</v>
       </c>
       <c r="B86" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
@@ -6314,18 +6336,18 @@
         <v>4</v>
       </c>
       <c r="F86" s="1">
-        <v>1.101</v>
+        <v>0.1968</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>10032</v>
+        <v>10160</v>
       </c>
       <c r="B87" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
@@ -6337,18 +6359,18 @@
         <v>4</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>-0.26650000000000001</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>10027</v>
+        <v>10160</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
@@ -6360,18 +6382,18 @@
         <v>4</v>
       </c>
       <c r="F88" s="1">
-        <v>5.67E-2</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>10027</v>
+        <v>10160</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -6383,18 +6405,18 @@
         <v>4</v>
       </c>
       <c r="F89" s="1">
-        <v>-0.30680000000000002</v>
+        <v>0.2621</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>10027</v>
+        <v>10160</v>
       </c>
       <c r="B90" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
@@ -6406,18 +6428,18 @@
         <v>4</v>
       </c>
       <c r="F90" s="1">
-        <v>0.38940000000000002</v>
+        <v>0</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>10027</v>
+        <v>10198</v>
       </c>
       <c r="B91" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
@@ -6429,18 +6451,18 @@
         <v>4</v>
       </c>
       <c r="F91" s="1">
-        <v>0.36</v>
+        <v>-0.43319999999999997</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>10026</v>
+        <v>10198</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
@@ -6449,21 +6471,21 @@
         <v>177</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1">
-        <v>0.32140000000000002</v>
+        <v>1.337</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>10026</v>
+        <v>10198</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
@@ -6475,1522 +6497,1671 @@
         <v>4</v>
       </c>
       <c r="F93" s="1">
-        <v>-0.30919999999999997</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>10037</v>
+        <v>10198</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>10037</v>
+        <v>10032</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.2726999999999999</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>10037</v>
+        <v>10032</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-0.16270000000000001</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>10037</v>
+        <v>10032</v>
       </c>
       <c r="B97" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2.4777999999999998</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>10037</v>
+        <v>10032</v>
       </c>
       <c r="B98" s="1">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-0.75229999999999997</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>10181</v>
+      </c>
+      <c r="B99" s="1">
         <v>5</v>
       </c>
-      <c r="C98" s="1">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>10037</v>
-      </c>
-      <c r="B99" s="1">
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-0.24429999999999999</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>10181</v>
+      </c>
+      <c r="B100" s="1">
         <v>6</v>
       </c>
-      <c r="C99" s="1">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>10037</v>
-      </c>
-      <c r="B100" s="1">
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B102" s="1">
+        <v>6</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B103" s="1">
         <v>7</v>
       </c>
-      <c r="C100" s="1">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>10037</v>
-      </c>
-      <c r="B101" s="1">
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1.101</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B104" s="1">
         <v>8</v>
       </c>
-      <c r="C101" s="1">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B102" s="1">
-        <v>7</v>
-      </c>
-      <c r="C102" s="1">
-        <v>3</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B103" s="1">
-        <v>8</v>
-      </c>
-      <c r="C103" s="1">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>10068</v>
-      </c>
-      <c r="B104" s="1">
-        <v>1</v>
-      </c>
       <c r="C104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>10068</v>
+        <v>10027</v>
       </c>
       <c r="B105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F105" s="1">
+        <v>5.67E-2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>10068</v>
+        <v>10027</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F106" s="1">
+        <v>-0.30680000000000002</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>10068</v>
+        <v>10027</v>
       </c>
       <c r="B107" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.38940000000000002</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>10068</v>
+        <v>10027</v>
       </c>
       <c r="B108" s="1">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="1">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>10068</v>
-      </c>
-      <c r="B109" s="1">
+    </row>
+    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="1">
+        <v>-0.30919999999999997</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="1">
-        <v>3</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>10068</v>
-      </c>
-      <c r="B110" s="1">
-        <v>7</v>
-      </c>
-      <c r="C110" s="1">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>10068</v>
+        <v>22528</v>
       </c>
       <c r="B111" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>10125</v>
+        <v>22528</v>
       </c>
       <c r="B112" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>10125</v>
+        <v>22528</v>
       </c>
       <c r="B113" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>10085</v>
+        <v>22528</v>
       </c>
       <c r="B114" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C114" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>10085</v>
+        <v>10087</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
       </c>
       <c r="C115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>10085</v>
+        <v>10087</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
       </c>
       <c r="C116" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>10085</v>
+        <v>10087</v>
       </c>
       <c r="B117" s="1">
         <v>4</v>
       </c>
       <c r="C117" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>10085</v>
+        <v>10087</v>
       </c>
       <c r="B118" s="1">
         <v>5</v>
       </c>
       <c r="C118" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>10085</v>
+        <v>10108</v>
       </c>
       <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>10496</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>10496</v>
+      </c>
+      <c r="B124" s="1">
         <v>6</v>
       </c>
-      <c r="C119" s="1">
-        <v>3</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>10085</v>
-      </c>
-      <c r="B120" s="1">
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>10496</v>
+      </c>
+      <c r="B125" s="1">
         <v>7</v>
       </c>
-      <c r="C120" s="1">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>10085</v>
-      </c>
-      <c r="B121" s="1">
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>10496</v>
+      </c>
+      <c r="B126" s="1">
         <v>8</v>
       </c>
-      <c r="C121" s="1">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B122" s="1">
-        <v>5</v>
-      </c>
-      <c r="C122" s="1">
-        <v>3</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B123" s="1">
-        <v>6</v>
-      </c>
-      <c r="C123" s="1">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>10113</v>
-      </c>
-      <c r="B124" s="1">
-        <v>1</v>
-      </c>
-      <c r="C124" s="1">
-        <v>4</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F124" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>10113</v>
-      </c>
-      <c r="B125" s="1">
-        <v>2</v>
-      </c>
-      <c r="C125" s="1">
-        <v>4</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>10113</v>
-      </c>
-      <c r="B126" s="1">
-        <v>3</v>
-      </c>
       <c r="C126" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F126" s="1">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>10113</v>
+        <v>20992</v>
       </c>
       <c r="B127" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F127" s="1">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>10113</v>
+        <v>20992</v>
       </c>
       <c r="B128" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C128" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F128" s="1">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>10113</v>
+        <v>20992</v>
       </c>
       <c r="B129" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C129" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F129" s="1">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>10113</v>
+        <v>20992</v>
       </c>
       <c r="B130" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C130" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F130" s="1">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>10113</v>
+        <v>10130</v>
       </c>
       <c r="B131" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F131" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>10087</v>
+        <v>10130</v>
       </c>
       <c r="B132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F132" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>14080</v>
+        <v>10130</v>
       </c>
       <c r="B133" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F133" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>14080</v>
+        <v>10130</v>
       </c>
       <c r="B134" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C134" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F134" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>14080</v>
+        <v>10125</v>
       </c>
       <c r="B135" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F135" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>14080</v>
+        <v>10125</v>
       </c>
       <c r="B136" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F136" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>14080</v>
+        <v>10125</v>
       </c>
       <c r="B137" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C137" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F137" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>14080</v>
+        <v>10125</v>
       </c>
       <c r="B138" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C138" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F138" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>14080</v>
+        <v>10198</v>
       </c>
       <c r="B139" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F139" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>14080</v>
+        <v>10198</v>
       </c>
       <c r="B140" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C140" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F140" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>10125</v>
+        <v>10198</v>
       </c>
       <c r="B141" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F141" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>10115</v>
+        <v>10198</v>
       </c>
       <c r="B142" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C142" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F142" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>10115</v>
+        <v>10131</v>
       </c>
       <c r="B143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F143" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>10115</v>
+        <v>10131</v>
       </c>
       <c r="B144" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F144" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>10115</v>
+        <v>10131</v>
       </c>
       <c r="B145" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F145" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>10115</v>
+        <v>10131</v>
       </c>
       <c r="B146" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F146" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>10115</v>
+        <v>10181</v>
       </c>
       <c r="B147" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C147" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F147" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>10115</v>
+        <v>10181</v>
       </c>
       <c r="B148" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C148" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F148" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>10115</v>
+        <v>10181</v>
       </c>
       <c r="B149" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F149" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>10129</v>
+        <v>10181</v>
       </c>
       <c r="B150" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F150" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>10033</v>
+        <v>10129</v>
       </c>
       <c r="B151" s="1">
         <v>1</v>
       </c>
       <c r="C151" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F151" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
       <c r="G151" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>10033</v>
+        <v>10129</v>
       </c>
       <c r="B152" s="1">
         <v>2</v>
       </c>
       <c r="C152" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F152" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
       <c r="G152" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>10033</v>
+        <v>10129</v>
       </c>
       <c r="B153" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C153" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F153" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
       <c r="G153" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>10033</v>
+        <v>10129</v>
       </c>
       <c r="B154" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F154" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
       <c r="G154" s="1" t="s">
-        <v>35</v>
+        <v>109</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>22528</v>
+        <v>10496</v>
       </c>
       <c r="B155" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>166</v>
+        <v>69</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1.96</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>22528</v>
+        <v>10496</v>
       </c>
       <c r="B156" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C156" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>168</v>
+        <v>69</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1.96</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>22528</v>
+        <v>10496</v>
       </c>
       <c r="B157" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C157" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>170</v>
+        <v>69</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1.96</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>22528</v>
+        <v>10496</v>
       </c>
       <c r="B158" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C158" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>172</v>
+        <v>69</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1.96</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H162" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G158" xr:uid="{3FF2ACF3-0187-4835-8E9D-AEA4EAD2AE32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G158">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:H1" xr:uid="{0F5AF880-8B17-49D5-AD59-D945D2A836E9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H158">
+      <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H159">
-    <sortCondition ref="C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H158">
+    <sortCondition descending="1" ref="H1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>